--- a/Table/Datas/Test.xlsx
+++ b/Table/Datas/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545F0C90-74C4-4813-B151-7A23FB479D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A3C600-424C-42CA-925E-0FEA44D62903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="3480" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -52,6 +52,10 @@
   </si>
   <si>
     <t>name2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name3</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -419,15 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C8"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,8 +441,11 @@
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -448,8 +455,11 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -459,8 +469,11 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -470,10 +483,13 @@
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -481,10 +497,13 @@
       <c r="C6">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="B7">
         <v>123</v>
@@ -492,15 +511,21 @@
       <c r="C7">
         <v>123</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2</v>
+        <v>1003</v>
       </c>
       <c r="B8">
         <v>1234</v>
       </c>
       <c r="C8">
+        <v>1234</v>
+      </c>
+      <c r="D8">
         <v>1234</v>
       </c>
     </row>
